--- a/resources/lang/Langues.xlsx
+++ b/resources/lang/Langues.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Ecole\Q5\PRJG5\gmi\resources\lang\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817AB6F9-87D9-445B-821B-04E416BEDA31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Albanais</t>
   </si>
@@ -28,9 +37,6 @@
     <t>Anglais</t>
   </si>
   <si>
-    <t>EN</t>
-  </si>
-  <si>
     <t>ENG</t>
   </si>
   <si>
@@ -133,12 +139,6 @@
     <t>Grec</t>
   </si>
   <si>
-    <t>GRC</t>
-  </si>
-  <si>
-    <t>"GRC" est le code ISO pour le grec ancien. Le code ISO pour le grec moderne est "GRE"</t>
-  </si>
-  <si>
     <t>Gujarati</t>
   </si>
   <si>
@@ -361,50 +361,46 @@
     <t>Langue des signes francophone de Belgique</t>
   </si>
   <si>
-    <t>LSBF</t>
-  </si>
-  <si>
     <t>SFB</t>
   </si>
   <si>
     <t>Langue des signes néerlandophone de Belgique</t>
   </si>
   <si>
-    <t>LSBN</t>
-  </si>
-  <si>
     <t>VGT</t>
   </si>
   <si>
     <t>Système des signes international</t>
   </si>
   <si>
-    <t>SSI</t>
-  </si>
-  <si>
     <t>ILS</t>
   </si>
   <si>
-    <t>https://fr.wikipedia.org/wiki/Liste_des_codes_ISO_639-2</t>
+    <t>GRE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -412,50 +408,53 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -645,23 +644,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="41.29"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -677,484 +681,468 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="1" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="1" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="1" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="1" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="1" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="1" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="1" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="1" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="1" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="1" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="1" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="1" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="1" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="1" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="1" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="1" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="1" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>124</v>
-      </c>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1003">
@@ -1162,9 +1150,6 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A61"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/lang/Langues.xlsx
+++ b/resources/lang/Langues.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Ecole\Q5\PRJG5\gmi\resources\lang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Snow\Desktop\gmi\resources\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817AB6F9-87D9-445B-821B-04E416BEDA31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E03EA11-4349-452C-8A5F-0BB8591FBCEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6465" yWindow="4095" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -361,29 +361,29 @@
     <t>Langue des signes francophone de Belgique</t>
   </si>
   <si>
-    <t>SFB</t>
-  </si>
-  <si>
-    <t>Langue des signes néerlandophone de Belgique</t>
-  </si>
-  <si>
     <t>VGT</t>
   </si>
   <si>
     <t>Système des signes international</t>
   </si>
   <si>
-    <t>ILS</t>
-  </si>
-  <si>
     <t>GRE</t>
+  </si>
+  <si>
+    <t>LSBF</t>
+  </si>
+  <si>
+    <t>SSI</t>
+  </si>
+  <si>
+    <t>Vlaamse Gevarentaal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -401,6 +401,12 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -423,10 +429,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,11 +665,11 @@
   </sheetPr>
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.28515625" customWidth="1"/>
   </cols>
@@ -822,7 +831,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C20" s="1"/>
     </row>
@@ -1121,21 +1130,21 @@
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>113</v>
+      <c r="B57" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>117</v>
@@ -1151,5 +1160,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>